--- a/list.xlsx
+++ b/list.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\ssafy\algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssafy\algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDF0126-F125-49EE-81AE-69837AE2252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7830"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="16200" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>1952 수영장</t>
   </si>
@@ -180,10 +192,6 @@
   </si>
   <si>
     <t>1767 프로세서 연결하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -577,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,6 +597,9 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -597,10 +608,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -610,18 +621,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -631,10 +642,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -669,10 +680,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,10 +693,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -715,10 +726,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -736,7 +747,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +815,7 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +823,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -845,7 +856,7 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -853,7 +864,7 @@
         <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -876,7 +887,7 @@
         <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -899,7 +910,7 @@
         <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
